--- a/tests/resources/row_string_references.xlsx
+++ b/tests/resources/row_string_references.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,9 +497,10 @@
         <f>ROW("A1")</f>
         <v/>
       </c>
-      <c r="B1">
-        <f>COLUMN("A1")</f>
-        <v/>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Value_Z1</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -507,39 +508,30 @@
         <f>ROW("A100")</f>
         <v/>
       </c>
-      <c r="B2">
-        <f>COLUMN("Z1")</f>
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
         <f>ROW("Data!A5")</f>
         <v/>
       </c>
-      <c r="B3">
-        <f>COLUMN("AA1")</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
         <f>ROW("Z1")</f>
         <v/>
       </c>
-      <c r="B4">
-        <f>COLUMN("Data!B1")</f>
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
         <f>ROW("$A$1")</f>
         <v/>
       </c>
-      <c r="B5">
-        <f>COLUMN("$B$1")</f>
-        <v/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1A: ROW Function - String References</t>
+        </is>
       </c>
     </row>
   </sheetData>
